--- a/biology/Botanique/Aeonium/Aeonium.xlsx
+++ b/biology/Botanique/Aeonium/Aeonium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeonium est un genre de plantes succulentes appartenant à la famille des Crassulaceae et comprenant 45 espèces, originaires principalement des îles Canaries.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie et nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Aeonium a été créé par les botanistes Barker Webb et Berthelot à partir d'un phytonyme grec aizōon αειζωον désignant[1] la Joubarbe arborescente (Sempervivum arboreum) chez Dioscoride (MM. 4, 88) ou Pline (HN. 25, 160 ; 26, 137 etc.) ou la Joubarbe des toits (Sempervivum tectorum) chez Dioscoride (4, 89) ou Pline (18, 159 ; 25, 160 etc.). Ce terme grec dérive lui-même d'un terme signifiant « vivace, toujours en vie » qui qualifiait ce genre de plante.
-Le botaniste britannique Barker Webb a longtemps exploré les îles Canaries en compagnie du naturaliste français Berthelot. Ils ont écrit ensemble Histoire naturelle des îles Canaries[2], (1840) dans lequel ils introduisent le genre Aeonium et décrivent plusieurs espèces d'Aeonium canariennes. Ils ont créé le genre Aeonium en le séparant du genre Sempervivum.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Aeonium a été créé par les botanistes Barker Webb et Berthelot à partir d'un phytonyme grec aizōon αειζωον désignant la Joubarbe arborescente (Sempervivum arboreum) chez Dioscoride (MM. 4, 88) ou Pline (HN. 25, 160 ; 26, 137 etc.) ou la Joubarbe des toits (Sempervivum tectorum) chez Dioscoride (4, 89) ou Pline (18, 159 ; 25, 160 etc.). Ce terme grec dérive lui-même d'un terme signifiant « vivace, toujours en vie » qui qualifiait ce genre de plante.
+Le botaniste britannique Barker Webb a longtemps exploré les îles Canaries en compagnie du naturaliste français Berthelot. Ils ont écrit ensemble Histoire naturelle des îles Canaries, (1840) dans lequel ils introduisent le genre Aeonium et décrivent plusieurs espèces d'Aeonium canariennes. Ils ont créé le genre Aeonium en le séparant du genre Sempervivum.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aeonium sont des sous-arbrisseaux ou de petits arbustes ramifiés, ou des plantes herbacées lignescentes à la base[2],[3]. Certaines espèces possèdent des branches charnues alors que d'autres sont acaules.
-Les feuilles persistantes sont disposées en rosette à l'extrémité des tiges. Elles sont ordinairement oblongues, obovales ou spatulées[4] et épaisses. Généralement sessiles et non connées à la base, elles sont charnues.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aeonium sont des sous-arbrisseaux ou de petits arbustes ramifiés, ou des plantes herbacées lignescentes à la base,. Certaines espèces possèdent des branches charnues alors que d'autres sont acaules.
+Les feuilles persistantes sont disposées en rosette à l'extrémité des tiges. Elles sont ordinairement oblongues, obovales ou spatulées et épaisses. Généralement sessiles et non connées à la base, elles sont charnues.
 Les fleurs sont groupées en cymes ou en thyrses, de forme conique plus ou moins étalée et de couleur jaune, poussant à partir du centre des rosettes de feuilles. Le développement de l'inflorescence provoque la mort de la rosette par épuisement (monocarpie).
-Les fleurs sont généralement de 7- à 12-mères[3] (mais parfois jusqu'à 6- ou 16-mères). Le calice  campanulé est 6-12-fide jusqu'au milieu, les pétales en même nombre, plus long que les étamines et connés avec les filets des étamines. Il y a deux fois plus d'étamines que de pétales.
+Les fleurs sont généralement de 7- à 12-mères (mais parfois jusqu'à 6- ou 16-mères). Le calice  campanulé est 6-12-fide jusqu'au milieu, les pétales en même nombre, plus long que les étamines et connés avec les filets des étamines. Il y a deux fois plus d'étamines que de pétales.
 Les fruits sont des follicules indéhiscents ou tardivement à la base dorsale.
 Les Aeonium sont proches des genres Sempervivum, Aichryson et Monanthes , à qui ils ressemblent par leurs fleurs et leurs inflorescences. Récemment, le genre Greenovia a été fusionné avec Aeonium.
 </t>
@@ -579,10 +595,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des Aeonium sont originaires des îles Canaries, mais certaines proviennent de Madère, du Maroc et d'Afrique de l'Est (Éthiopie).
-Certaines espèces ont été introduites en Californie, au Yémen et en Afrique[4].
+Certaines espèces ont été introduites en Californie, au Yémen et en Afrique.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aeonium sont faciles à cultiver mais ils sont peu résistants au gel.
 On les reproduit facilement par division des rejets dont certains présentent des petites racines aériennes, ou par semis.
@@ -644,7 +664,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aeonium aizoon (Bolle) T.Mes
 Aeonium appendiculatum Bañares - endémique des îles Canaries
@@ -717,7 +739,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aeonium aureum
